--- a/module/excel/src/test/resources/workbooks/test.xlsx
+++ b/module/excel/src/test/resources/workbooks/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\core\module\excel\src\test\resources\workbooks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{769948CE-D8FD-4BA7-89FD-433ED77313A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8238EBD-F307-4265-A431-DC34E7180677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>key</t>
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>METADATA: Test</t>
   </si>
 </sst>
 </file>
@@ -368,103 +371,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>10</v>
       </c>
     </row>
